--- a/data/031122/dc_perfomance.xlsx
+++ b/data/031122/dc_perfomance.xlsx
@@ -5,22 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\microradar\hardware\current_measurements\data\031122\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\differential_probe\data\031122\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23D0F7E-599E-4571-9378-06A2222DDF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9075709-BE84-47D9-96D8-61451A284ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{B68A033D-DEE3-46F4-88BB-96623AB510CB}"/>
+    <workbookView xWindow="14685" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{B68A033D-DEE3-46F4-88BB-96623AB510CB}"/>
   </bookViews>
   <sheets>
     <sheet name="channel_a" sheetId="1" r:id="rId1"/>
     <sheet name="channel_b" sheetId="2" r:id="rId2"/>
     <sheet name="channel_c" sheetId="3" r:id="rId3"/>
-    <sheet name="channel_a2" sheetId="5" r:id="rId4"/>
-    <sheet name="channel_d" sheetId="4" r:id="rId5"/>
+    <sheet name="channel_d" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="67">
   <si>
     <t>2.5</t>
   </si>
@@ -105,33 +103,9 @@
     <t>101x</t>
   </si>
   <si>
-    <t>103.4</t>
-  </si>
-  <si>
-    <t>255.1</t>
-  </si>
-  <si>
-    <t>508.2</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>99.1</t>
-  </si>
-  <si>
     <t>82.4</t>
   </si>
   <si>
-    <t>55.2</t>
-  </si>
-  <si>
-    <t>27.7</t>
-  </si>
-  <si>
-    <t>11.3</t>
-  </si>
-  <si>
     <t>0.0</t>
   </si>
   <si>
@@ -144,12 +118,6 @@
     <t>10.0</t>
   </si>
   <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
     <t>-0.1</t>
   </si>
   <si>
@@ -213,9 +181,6 @@
     <t>511.8</t>
   </si>
   <si>
-    <t>1x</t>
-  </si>
-  <si>
     <t>9.0</t>
   </si>
   <si>
@@ -232,6 +197,48 @@
   </si>
   <si>
     <t>89.5</t>
+  </si>
+  <si>
+    <t>S2: 1x</t>
+  </si>
+  <si>
+    <t>S2: 10x</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>25.1</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>75.3</t>
+  </si>
+  <si>
+    <t>90.4</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>89.9</t>
+  </si>
+  <si>
+    <t>90.0</t>
   </si>
 </sst>
 </file>
@@ -609,15 +616,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5E78ED-FCDA-4226-BF9E-5F313CBC8F76}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -630,116 +637,158 @@
       <c r="D1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D2" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
         <v>764</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1">
         <v>916</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -752,15 +801,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D3B6D1-A477-4CA9-BA40-C9D2D4DB73CC}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -773,50 +822,74 @@
       <c r="D1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4">
         <v>254</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -824,13 +897,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4">
         <v>506</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -838,13 +917,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4">
         <v>758</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>9</v>
       </c>
@@ -852,10 +937,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4">
         <v>910</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -865,15 +956,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1853E607-7C82-46F5-959A-D368CDC23EC0}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -886,16 +977,28 @@
       <c r="D1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -908,8 +1011,14 @@
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -922,8 +1031,14 @@
       <c r="D4" s="4">
         <v>239</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -936,8 +1051,14 @@
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -950,8 +1071,14 @@
       <c r="D6" s="4">
         <v>772</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>9</v>
       </c>
@@ -963,6 +1090,12 @@
       </c>
       <c r="D7" s="4">
         <v>931</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -971,203 +1104,153 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB778859-4234-461B-B02F-E6461462A369}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B6A95B-C60C-4FBB-A60E-7A10F17F64E1}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+        <v>38</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1">
+        <v>764</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="F6" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B6A95B-C60C-4FBB-A60E-7A10F17F64E1}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F26" sqref="C26:F38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4">
-        <v>912</v>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1">
+        <v>916</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
